--- a/biology/Médecine/Tendon_commun_des_extenseurs/Tendon_commun_des_extenseurs.xlsx
+++ b/biology/Médecine/Tendon_commun_des_extenseurs/Tendon_commun_des_extenseurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tendon extenseur commun est un tendon de l'avant-bras qui s'attache à l'épicondyle latéral de l'humérus.
 Il sert de point d'attache à des muscles superficiels de la loge antébrachiale postérieure :
 le muscle court extenseur radial du carpe,
 le muscle extenseur des doigts de la main,
 le muscle extenseur du petit doigt,
-le muscle extenseur ulnaire du carpe[1].
+le muscle extenseur ulnaire du carpe.
 Le tendon du muscle court extenseur radial du carpe est généralement le tendon le plus important avec lequel les autres tendons fusionnent.
 </t>
         </is>
@@ -517,7 +529,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mouvements répétitifs et intenses du coude au cours d'une pratique sportive telle que le tennis peuvent entraîner une inflammation douloureuse du tendon commun : l'épicondylite.
 </t>
